--- a/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
+++ b/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BF6E4D-3E67-4A2E-A0AC-03F5DE3C159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B324D92-5C97-49AD-B7F6-8ACB792C171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="720" windowWidth="18675" windowHeight="12975" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
   </bookViews>
@@ -411,11 +411,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F159FE-D3DB-49C1-B473-4E87221778F1}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2012,6 +2010,526 @@
       </c>
       <c r="H61">
         <v>4.8935192641653996E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>314.60220933435261</v>
+      </c>
+      <c r="C62">
+        <v>3.1802317779983493</v>
+      </c>
+      <c r="D62">
+        <v>3.193716350917418</v>
+      </c>
+      <c r="E62">
+        <v>4.2401226892827062E-3</v>
+      </c>
+      <c r="F62">
+        <v>0.25131446579357458</v>
+      </c>
+      <c r="G62">
+        <v>2.0536320520761923E-2</v>
+      </c>
+      <c r="H62">
+        <v>4.7853550739534068E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>328.74296025338435</v>
+      </c>
+      <c r="C63">
+        <v>3.0262786837990991</v>
+      </c>
+      <c r="D63">
+        <v>3.0279049876367603</v>
+      </c>
+      <c r="E63">
+        <v>5.3739394404336393E-4</v>
+      </c>
+      <c r="F63">
+        <v>0.26050712580345742</v>
+      </c>
+      <c r="G63">
+        <v>2.1009631783241289E-2</v>
+      </c>
+      <c r="H63">
+        <v>4.6775491649859023E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>344.79657116908072</v>
+      </c>
+      <c r="C64">
+        <v>2.8684957729033598</v>
+      </c>
+      <c r="D64">
+        <v>2.8696689953827654</v>
+      </c>
+      <c r="E64">
+        <v>4.0900268722312731E-4</v>
+      </c>
+      <c r="F64">
+        <v>0.26373534040594898</v>
+      </c>
+      <c r="G64">
+        <v>2.1500763653360185E-2</v>
+      </c>
+      <c r="H64">
+        <v>4.5707021010392423E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>362.64223794324749</v>
+      </c>
+      <c r="C65">
+        <v>2.7088144205075464</v>
+      </c>
+      <c r="D65">
+        <v>2.7060305695025262</v>
+      </c>
+      <c r="E65">
+        <v>1.0277008952494443E-3</v>
+      </c>
+      <c r="F65">
+        <v>0.26717887758860392</v>
+      </c>
+      <c r="G65">
+        <v>2.2004094426279222E-2</v>
+      </c>
+      <c r="H65">
+        <v>4.4661499673894607E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>383.89190299528838</v>
+      </c>
+      <c r="C66">
+        <v>2.5491444140341093</v>
+      </c>
+      <c r="D66">
+        <v>2.5464960594496859</v>
+      </c>
+      <c r="E66">
+        <v>1.0389190074297319E-3</v>
+      </c>
+      <c r="F66">
+        <v>0.26709189192963906</v>
+      </c>
+      <c r="G66">
+        <v>2.2502126383436877E-2</v>
+      </c>
+      <c r="H66">
+        <v>4.3673021797930041E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>407.6189205404541</v>
+      </c>
+      <c r="C67">
+        <v>2.3913302718645757</v>
+      </c>
+      <c r="D67">
+        <v>2.3945208043825499</v>
+      </c>
+      <c r="E67">
+        <v>1.3342082252345909E-3</v>
+      </c>
+      <c r="F67">
+        <v>0.26882190873739553</v>
+      </c>
+      <c r="G67">
+        <v>2.2995735861364622E-2</v>
+      </c>
+      <c r="H67">
+        <v>4.2735568975408193E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>434.09310445041314</v>
+      </c>
+      <c r="C68">
+        <v>2.237111438067684</v>
+      </c>
+      <c r="D68">
+        <v>2.2301789568018542</v>
+      </c>
+      <c r="E68">
+        <v>3.0988537932727027E-3</v>
+      </c>
+      <c r="F68">
+        <v>0.27610674007486802</v>
+      </c>
+      <c r="G68">
+        <v>2.3485506168437132E-2</v>
+      </c>
+      <c r="H68">
+        <v>4.1844354939402736E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>463.43798929280342</v>
+      </c>
+      <c r="C69">
+        <v>2.0880888840362379</v>
+      </c>
+      <c r="D69">
+        <v>2.0925397587682624</v>
+      </c>
+      <c r="E69">
+        <v>2.131554248505444E-3</v>
+      </c>
+      <c r="F69">
+        <v>0.27346397125536098</v>
+      </c>
+      <c r="G69">
+        <v>2.396633922333808E-2</v>
+      </c>
+      <c r="H69">
+        <v>4.100483794732579E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>495.29929706331194</v>
+      </c>
+      <c r="C70">
+        <v>1.9457000227727637</v>
+      </c>
+      <c r="D70">
+        <v>1.9453093290316428</v>
+      </c>
+      <c r="E70">
+        <v>2.0079854887605824E-4</v>
+      </c>
+      <c r="F70">
+        <v>0.27235939927614117</v>
+      </c>
+      <c r="G70">
+        <v>2.443259804471665E-2</v>
+      </c>
+      <c r="H70">
+        <v>4.0222323235744643E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>530.96386245608153</v>
+      </c>
+      <c r="C71">
+        <v>1.8112030457153263</v>
+      </c>
+      <c r="D71">
+        <v>1.8085522474855174</v>
+      </c>
+      <c r="E71">
+        <v>1.4635566321952816E-3</v>
+      </c>
+      <c r="F71">
+        <v>0.27913357952740103</v>
+      </c>
+      <c r="G71">
+        <v>2.4868450001487689E-2</v>
+      </c>
+      <c r="H71">
+        <v>3.9517374664879645E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>569.23663641620044</v>
+      </c>
+      <c r="C72">
+        <v>1.6856709458472734</v>
+      </c>
+      <c r="D72">
+        <v>1.680811177023771</v>
+      </c>
+      <c r="E72">
+        <v>2.882987830735663E-3</v>
+      </c>
+      <c r="F72">
+        <v>0.28422522447954973</v>
+      </c>
+      <c r="G72">
+        <v>2.5282389761176284E-2</v>
+      </c>
+      <c r="H72">
+        <v>3.8870370456542361E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>610.16695680634245</v>
+      </c>
+      <c r="C73">
+        <v>1.5699947083189207</v>
+      </c>
+      <c r="D73">
+        <v>1.5638918501615711</v>
+      </c>
+      <c r="E73">
+        <v>3.8871839026033035E-3</v>
+      </c>
+      <c r="F73">
+        <v>0.28194134169256235</v>
+      </c>
+      <c r="G73">
+        <v>2.5668189874556793E-2</v>
+      </c>
+      <c r="H73">
+        <v>3.8286137855702007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>652.34516873224379</v>
+      </c>
+      <c r="C74">
+        <v>1.464894518558977</v>
+      </c>
+      <c r="D74">
+        <v>1.4656333316419248</v>
+      </c>
+      <c r="E74">
+        <v>5.0434558501491163E-4</v>
+      </c>
+      <c r="F74">
+        <v>0.28790059169727128</v>
+      </c>
+      <c r="G74">
+        <v>2.6025509915258378E-2</v>
+      </c>
+      <c r="H74">
+        <v>3.7760484203518019E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>696.1647890733085</v>
+      </c>
+      <c r="C75">
+        <v>1.3709374080230179</v>
+      </c>
+      <c r="D75">
+        <v>1.3688305577688387</v>
+      </c>
+      <c r="E75">
+        <v>1.5367953648718678E-3</v>
+      </c>
+      <c r="F75">
+        <v>0.28232955326630182</v>
+      </c>
+      <c r="G75">
+        <v>2.6346717826941885E-2</v>
+      </c>
+      <c r="H75">
+        <v>3.7300124535386336E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>738.48163659214026</v>
+      </c>
+      <c r="C76">
+        <v>1.2885595404939398</v>
+      </c>
+      <c r="D76">
+        <v>1.2883489462847122</v>
+      </c>
+      <c r="E76">
+        <v>1.6343382095243897E-4</v>
+      </c>
+      <c r="F76">
+        <v>0.28799402541804092</v>
+      </c>
+      <c r="G76">
+        <v>2.6631956948024123E-2</v>
+      </c>
+      <c r="H76">
+        <v>3.690062498830101E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>781.50646162823728</v>
+      </c>
+      <c r="C77">
+        <v>1.2180913158537048</v>
+      </c>
+      <c r="D77">
+        <v>1.2123619283376741</v>
+      </c>
+      <c r="E77">
+        <v>4.7035780006486833E-3</v>
+      </c>
+      <c r="F77">
+        <v>0.29154284848813833</v>
+      </c>
+      <c r="G77">
+        <v>2.6870079734668262E-2</v>
+      </c>
+      <c r="H77">
+        <v>3.6573611457344203E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>820.98266125330485</v>
+      </c>
+      <c r="C78">
+        <v>1.159783590634661</v>
+      </c>
+      <c r="D78">
+        <v>1.1604307889464236</v>
+      </c>
+      <c r="E78">
+        <v>5.580336857572446E-4</v>
+      </c>
+      <c r="F78">
+        <v>0.28718900602670244</v>
+      </c>
+      <c r="G78">
+        <v>2.7067747689864637E-2</v>
+      </c>
+      <c r="H78">
+        <v>3.630652492049035E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>854.20517956651713</v>
+      </c>
+      <c r="C79">
+        <v>1.1138335331765694</v>
+      </c>
+      <c r="D79">
+        <v>1.1148306786076716</v>
+      </c>
+      <c r="E79">
+        <v>8.9523739535691909E-4</v>
+      </c>
+      <c r="F79">
+        <v>0.29012835250656038</v>
+      </c>
+      <c r="G79">
+        <v>2.7229526504429769E-2</v>
+      </c>
+      <c r="H79">
+        <v>3.6090816925653905E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>879.47172618643663</v>
+      </c>
+      <c r="C80">
+        <v>1.0804088945786661</v>
+      </c>
+      <c r="D80">
+        <v>1.0753323276674407</v>
+      </c>
+      <c r="E80">
+        <v>4.6987459439651489E-3</v>
+      </c>
+      <c r="F80">
+        <v>0.2892574414511711</v>
+      </c>
+      <c r="G80">
+        <v>2.7347315438784242E-2</v>
+      </c>
+      <c r="H80">
+        <v>3.5935368436562865E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>896.42702889444911</v>
+      </c>
+      <c r="C81">
+        <v>1.059669741704262</v>
+      </c>
+      <c r="D81">
+        <v>1.0612269655092614</v>
+      </c>
+      <c r="E81">
+        <v>1.469536916751984E-3</v>
+      </c>
+      <c r="F81">
+        <v>0.29091582382037345</v>
+      </c>
+      <c r="G81">
+        <v>2.742391326514414E-2</v>
+      </c>
+      <c r="H81">
+        <v>3.5834997235521283E-2</v>
       </c>
     </row>
   </sheetData>

--- a/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
+++ b/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B324D92-5C97-49AD-B7F6-8ACB792C171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75635A3-146A-41F6-A597-6C54D32C5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="720" windowWidth="18675" windowHeight="12975" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,9 +411,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F159FE-D3DB-49C1-B473-4E87221778F1}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2530,6 +2530,526 @@
       </c>
       <c r="H81">
         <v>3.5834997235521283E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>905.10399704058295</v>
+      </c>
+      <c r="C82">
+        <v>1.0517869339683252</v>
+      </c>
+      <c r="D82">
+        <v>1.0618479855448426</v>
+      </c>
+      <c r="E82">
+        <v>9.5656746167759182E-3</v>
+      </c>
+      <c r="F82">
+        <v>0.28718042175713621</v>
+      </c>
+      <c r="G82">
+        <v>2.744420926949483E-2</v>
+      </c>
+      <c r="H82">
+        <v>3.5808495934184552E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>899.49421131434565</v>
+      </c>
+      <c r="C83">
+        <v>1.0569568128510942</v>
+      </c>
+      <c r="D83">
+        <v>1.0602863555148205</v>
+      </c>
+      <c r="E83">
+        <v>3.1501217677428286E-3</v>
+      </c>
+      <c r="F83">
+        <v>0.28932015888796475</v>
+      </c>
+      <c r="G83">
+        <v>2.7431169645385018E-2</v>
+      </c>
+      <c r="H83">
+        <v>3.5825517786805337E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>882.09335832163345</v>
+      </c>
+      <c r="C84">
+        <v>1.0754117048643399</v>
+      </c>
+      <c r="D84">
+        <v>1.0733941814392163</v>
+      </c>
+      <c r="E84">
+        <v>1.8760474858120768E-3</v>
+      </c>
+      <c r="F84">
+        <v>0.28751278098299765</v>
+      </c>
+      <c r="G84">
+        <v>2.7372445131306877E-2</v>
+      </c>
+      <c r="H84">
+        <v>3.5902377421139629E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>857.55788564424563</v>
+      </c>
+      <c r="C85">
+        <v>1.1074259172919776</v>
+      </c>
+      <c r="D85">
+        <v>1.1117696292342767</v>
+      </c>
+      <c r="E85">
+        <v>3.922349905735375E-3</v>
+      </c>
+      <c r="F85">
+        <v>0.28805082562070228</v>
+      </c>
+      <c r="G85">
+        <v>2.7257854918536675E-2</v>
+      </c>
+      <c r="H85">
+        <v>3.6053308632709287E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>823.35879510341863</v>
+      </c>
+      <c r="C86">
+        <v>1.1533169408215362</v>
+      </c>
+      <c r="D86">
+        <v>1.1442263833457051</v>
+      </c>
+      <c r="E86">
+        <v>7.8820982802486773E-3</v>
+      </c>
+      <c r="F86">
+        <v>0.28889855369492007</v>
+      </c>
+      <c r="G86">
+        <v>2.7099256053850319E-2</v>
+      </c>
+      <c r="H86">
+        <v>3.626431124495709E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>783.47096631355862</v>
+      </c>
+      <c r="C87">
+        <v>1.2134415787506807</v>
+      </c>
+      <c r="D87">
+        <v>1.2037458406854247</v>
+      </c>
+      <c r="E87">
+        <v>7.9902800720232803E-3</v>
+      </c>
+      <c r="F87">
+        <v>0.28536721394322195</v>
+      </c>
+      <c r="G87">
+        <v>2.6887527633830923E-2</v>
+      </c>
+      <c r="H87">
+        <v>3.6549878048552871E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>739.24858856370031</v>
+      </c>
+      <c r="C88">
+        <v>1.2881867170623782</v>
+      </c>
+      <c r="D88">
+        <v>1.2862784558310882</v>
+      </c>
+      <c r="E88">
+        <v>1.4813545319281147E-3</v>
+      </c>
+      <c r="F88">
+        <v>0.28869216965264299</v>
+      </c>
+      <c r="G88">
+        <v>2.6630232751715388E-2</v>
+      </c>
+      <c r="H88">
+        <v>3.6903014149597041E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>692.91711079876677</v>
+      </c>
+      <c r="C89">
+        <v>1.3779544541977093</v>
+      </c>
+      <c r="D89">
+        <v>1.3863196351451919</v>
+      </c>
+      <c r="E89">
+        <v>6.0707238341582157E-3</v>
+      </c>
+      <c r="F89">
+        <v>0.28602469207995618</v>
+      </c>
+      <c r="G89">
+        <v>2.6319291609039282E-2</v>
+      </c>
+      <c r="H89">
+        <v>3.7338993413717027E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>644.83123564958692</v>
+      </c>
+      <c r="C90">
+        <v>1.4831413464062131</v>
+      </c>
+      <c r="D90">
+        <v>1.4823063018889968</v>
+      </c>
+      <c r="E90">
+        <v>5.6302423180343937E-4</v>
+      </c>
+      <c r="F90">
+        <v>0.28357392305701512</v>
+      </c>
+      <c r="G90">
+        <v>2.5962735985536167E-2</v>
+      </c>
+      <c r="H90">
+        <v>3.7851783286287605E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>596.5775855938399</v>
+      </c>
+      <c r="C91">
+        <v>1.6041116173303904</v>
+      </c>
+      <c r="D91">
+        <v>1.6036502840083453</v>
+      </c>
+      <c r="E91">
+        <v>2.8759427776783105E-4</v>
+      </c>
+      <c r="F91">
+        <v>0.27973712002938284</v>
+      </c>
+      <c r="G91">
+        <v>2.5561868040876595E-2</v>
+      </c>
+      <c r="H91">
+        <v>3.8445384917569374E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>550.28800337928078</v>
+      </c>
+      <c r="C92">
+        <v>1.741164351173744</v>
+      </c>
+      <c r="D92">
+        <v>1.7373033427573361</v>
+      </c>
+      <c r="E92">
+        <v>2.2174864847222179E-3</v>
+      </c>
+      <c r="F92">
+        <v>0.2806758480765616</v>
+      </c>
+      <c r="G92">
+        <v>2.5110289840646269E-2</v>
+      </c>
+      <c r="H92">
+        <v>3.9136778678390695E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>505.79422672258551</v>
+      </c>
+      <c r="C93">
+        <v>1.8944949560389976</v>
+      </c>
+      <c r="D93">
+        <v>1.8824112036507226</v>
+      </c>
+      <c r="E93">
+        <v>6.3783502562285745E-3</v>
+      </c>
+      <c r="F93">
+        <v>0.2953665783679299</v>
+      </c>
+      <c r="G93">
+        <v>2.4621259809791126E-2</v>
+      </c>
+      <c r="H93">
+        <v>3.9914117459286608E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>461.73161586167834</v>
+      </c>
+      <c r="C94">
+        <v>2.0641515592264708</v>
+      </c>
+      <c r="D94">
+        <v>2.0661985279093109</v>
+      </c>
+      <c r="E94">
+        <v>9.9167557425252511E-4</v>
+      </c>
+      <c r="F94">
+        <v>0.32436441422031764</v>
+      </c>
+      <c r="G94">
+        <v>2.4133917444515807E-2</v>
+      </c>
+      <c r="H94">
+        <v>4.0720113437983624E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>416.20710506106155</v>
+      </c>
+      <c r="C95">
+        <v>2.2499874789877352</v>
+      </c>
+      <c r="D95">
+        <v>2.246208558014426</v>
+      </c>
+      <c r="E95">
+        <v>1.6795297789876408E-3</v>
+      </c>
+      <c r="F95">
+        <v>0.36481445206498914</v>
+      </c>
+      <c r="G95">
+        <v>2.3690113565134431E-2</v>
+      </c>
+      <c r="H95">
+        <v>4.1482952512728447E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>376.0340442081943</v>
+      </c>
+      <c r="C96">
+        <v>2.451611489865392</v>
+      </c>
+      <c r="D96">
+        <v>2.4505618821328716</v>
+      </c>
+      <c r="E96">
+        <v>4.2812971666159684E-4</v>
+      </c>
+      <c r="F96">
+        <v>0.41088446074630608</v>
+      </c>
+      <c r="G96">
+        <v>2.3215550887952737E-2</v>
+      </c>
+      <c r="H96">
+        <v>4.2330929848991325E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>342.76192974200893</v>
+      </c>
+      <c r="C97">
+        <v>2.668338221910707</v>
+      </c>
+      <c r="D97">
+        <v>2.6624125857798608</v>
+      </c>
+      <c r="E97">
+        <v>2.2207215270495322E-3</v>
+      </c>
+      <c r="F97">
+        <v>0.49138806841716914</v>
+      </c>
+      <c r="G97">
+        <v>2.2663474886371507E-2</v>
+      </c>
+      <c r="H97">
+        <v>4.3362099632593215E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>314.11301903339489</v>
+      </c>
+      <c r="C98">
+        <v>2.8991416438778357</v>
+      </c>
+      <c r="D98">
+        <v>2.8937216731151576</v>
+      </c>
+      <c r="E98">
+        <v>1.8695087817194181E-3</v>
+      </c>
+      <c r="F98">
+        <v>0.65749119534065292</v>
+      </c>
+      <c r="G98">
+        <v>2.2069398035653283E-2</v>
+      </c>
+      <c r="H98">
+        <v>4.4529345769014544E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>286.90596800614372</v>
+      </c>
+      <c r="C99">
+        <v>3.1426150900261072</v>
+      </c>
+      <c r="D99">
+        <v>3.1231589215514632</v>
+      </c>
+      <c r="E99">
+        <v>6.1910758770277212E-3</v>
+      </c>
+      <c r="F99">
+        <v>0.93751174101477741</v>
+      </c>
+      <c r="G99">
+        <v>2.1504724154510987E-2</v>
+      </c>
+      <c r="H99">
+        <v>4.5698603199124034E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>257.78791973217602</v>
+      </c>
+      <c r="C100">
+        <v>3.396941596840962</v>
+      </c>
+      <c r="D100">
+        <v>3.3934083906093457</v>
+      </c>
+      <c r="E100">
+        <v>1.0401139174432662E-3</v>
+      </c>
+      <c r="F100">
+        <v>1.5351034474100622</v>
+      </c>
+      <c r="G100">
+        <v>2.1113807829922959E-2</v>
+      </c>
+      <c r="H100">
+        <v>4.6544700224601859E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>210.995388944257</v>
+      </c>
+      <c r="C101">
+        <v>3.6598783159560249</v>
+      </c>
+      <c r="D101">
+        <v>3.6396045767071725</v>
+      </c>
+      <c r="E101">
+        <v>5.53945718918157E-3</v>
+      </c>
+      <c r="F101">
+        <v>3.4386981523677442</v>
+      </c>
+      <c r="G101">
+        <v>2.1528480866808666E-2</v>
+      </c>
+      <c r="H101">
+        <v>4.5648174719041118E-2</v>
       </c>
     </row>
   </sheetData>

--- a/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
+++ b/GD/pos_1_to_101_MaxC_60000_Grad_0.000405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moar Documents\GitHub\Fitting-Most-Optimal-Constants-for-Bacterial-Chemotaxis-Equation\GD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75635A3-146A-41F6-A597-6C54D32C5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BBDE41-55C4-4D0B-BBB5-DAA31ED6C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67997574-F618-4EAD-A196-F9F66C722695}"/>
   </bookViews>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F159FE-D3DB-49C1-B473-4E87221778F1}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,25 +457,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="C2">
         <v>6.8255138645384933E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.18938162738875897</v>
-      </c>
-      <c r="E2">
-        <v>1.7746134744913304</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>3.1348618088260533E-2</v>
-      </c>
-      <c r="H2">
-        <v>3.1348618088260533E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -483,25 +468,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="C3">
         <v>7.7261312811500088E-2</v>
-      </c>
-      <c r="D3">
-        <v>7.4710535991164576E-2</v>
-      </c>
-      <c r="E3">
-        <v>3.3014929820812437E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.2096718000517053</v>
-      </c>
-      <c r="G3">
-        <v>3.130624745017814E-2</v>
-      </c>
-      <c r="H3">
-        <v>3.139104607179688E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,6 +3020,15 @@
       </c>
       <c r="H101">
         <v>4.5648174719041118E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <f>-0.0092427877*(A102)^4+3.4680095198*(A102)^3-486.6530451872*(A102)^2+30229.1981867631*(A102)-699901.922836171</f>
+        <v>184.86191186634824</v>
       </c>
     </row>
   </sheetData>
